--- a/metadata/TB_Tracker/TB-REG_TRACKER_V1_DHIS2.34/reference.xlsx
+++ b/metadata/TB_Tracker/TB-REG_TRACKER_V1_DHIS2.34/reference.xlsx
@@ -498,7 +498,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-11-05T08:59</v>
+        <v>2020-11-05T10:27</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +506,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>TB-REG_TRACKER_V1.1.0_DHIS2.34_2020-11-05T08:59</v>
+        <v>TB-REG_TRACKER_V1.1.0_DHIS2.34_2020-11-05T10:27</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +555,7 @@
         <v>Ewi7FUfcHAD</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -572,7 +572,7 @@
         <v>ntelZthDPpR</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -589,7 +589,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -606,7 +606,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -623,7 +623,7 @@
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -640,7 +640,7 @@
         <v>Z1rLc1rVHK8</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -657,7 +657,7 @@
         <v>mAWcalQYYyk</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -674,7 +674,7 @@
         <v>xdRQzKcARGt</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -691,7 +691,7 @@
         <v>ljHL8NnSEAD</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -708,7 +708,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -725,7 +725,7 @@
         <v>ciCR6BBvIT4</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -770,7 +770,7 @@
         <v>Subsequent DST in Liquid Media - Am</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>a4PpEfSutcV</v>
@@ -784,7 +784,7 @@
         <v>Initial DST in Solid Media - Z</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>aCaNdqUIDZl</v>
@@ -798,7 +798,7 @@
         <v>Ethambutol Result</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-10-10</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>AiyTLOJHMkl</v>
@@ -812,7 +812,7 @@
         <v>Initial DST in Solid Media - H CB</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>anpSc1tmlft</v>
@@ -826,7 +826,7 @@
         <v>Initial DST in Liquid Media - Lzd</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>aZq11UuXPP6</v>
@@ -840,7 +840,7 @@
         <v>Subsequent DST in Liquid Media - Lfx</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D7" s="5" t="str">
         <v>b1KgVOel21P</v>
@@ -854,7 +854,7 @@
         <v>Subsequent DST in Solid Media - Z</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D8" s="4" t="str">
         <v>bHPYGfrFNV2</v>
@@ -868,7 +868,7 @@
         <v>Initial DST in Liquid Media - Dlm</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>BJTzi3WWjhT</v>
@@ -882,7 +882,7 @@
         <v>Subsequent Phenotypic DST in SM (eg. LJ)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>BpRfvWQcvTo</v>
@@ -896,7 +896,7 @@
         <v>Subsequent DST in Solid Media - Cfz</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>bywBn5DxVdi</v>
@@ -910,7 +910,7 @@
         <v>Xpert MTB/RIF Ultra</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>cFoFDkXKcXC</v>
@@ -924,7 +924,7 @@
         <v>Initial DST in Liquid Media - H CC</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>cRldkiBh5xv</v>
@@ -938,7 +938,7 @@
         <v>Initial DST in Solid Media - Lzd</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>CVQR2ZtZWxk</v>
@@ -952,7 +952,7 @@
         <v>Subsequent DST in Solid Media - Mfx CC</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D15" s="5" t="str">
         <v>Czx5FuOqF9i</v>
@@ -966,7 +966,7 @@
         <v>Initial DST in Solid Media - H CC</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D16" s="4" t="str">
         <v>dAPAScvFPfX</v>
@@ -980,7 +980,7 @@
         <v>Initial DST in Liquid Media - Mfx CC</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D17" s="5" t="str">
         <v>dgjpdQO2Iva</v>
@@ -994,7 +994,7 @@
         <v>Subsequent DST in Solid Media - Am</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D18" s="4" t="str">
         <v>dTwKm1u2VhY</v>
@@ -1008,7 +1008,7 @@
         <v>Subsequent DST in Solid Media - H CC</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D19" s="5" t="str">
         <v>eM3UfUO7W8O</v>
@@ -1022,7 +1022,7 @@
         <v>LPA (RIF/INH)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D20" s="4" t="str">
         <v>ESUffSPwmju</v>
@@ -1036,7 +1036,7 @@
         <v>Subsequent DST in Liquid Media - H CB</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D21" s="5" t="str">
         <v>F9DTb5zl8rS</v>
@@ -1050,7 +1050,7 @@
         <v>Initial DST in Liquid Media - Z</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D22" s="4" t="str">
         <v>FDtk4otxDse</v>
@@ -1064,7 +1064,7 @@
         <v>Subsequent DST in Solid Media - Lfx</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D23" s="5" t="str">
         <v>Fw8wOlTETPt</v>
@@ -1078,7 +1078,7 @@
         <v>Initial DST in Liquid Media - Cfz</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D24" s="4" t="str">
         <v>GL5JTtBvbEC</v>
@@ -1092,7 +1092,7 @@
         <v>LPA (FQ/2LI)</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D25" s="5" t="str">
         <v>govArZqiFzY</v>
@@ -1106,7 +1106,7 @@
         <v>First-line and Second-line drugs</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D26" s="4" t="str">
         <v>GxOlFoUKbHB</v>
@@ -1120,7 +1120,7 @@
         <v>Xpert MTB/RIF</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D27" s="5" t="str">
         <v>H4ObQDbhnTA</v>
@@ -1134,7 +1134,7 @@
         <v>Subsequent DST in Liquid Media - Mfx CC</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D28" s="4" t="str">
         <v>HhKitGif8RV</v>
@@ -1148,7 +1148,7 @@
         <v>Initial Phenotypic DST in SM (eg. LJ)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D29" s="5" t="str">
         <v>HjN2Bgnusyy</v>
@@ -1162,7 +1162,7 @@
         <v>Subsequent DST in Liquid Media - E</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D30" s="4" t="str">
         <v>Ic5asMdbpH8</v>
@@ -1176,7 +1176,7 @@
         <v>TB Culture in Solid Media (e.g. LJ)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D31" s="5" t="str">
         <v>iSKEqcuVAui</v>
@@ -1190,7 +1190,7 @@
         <v>Subsequent DST in Solid Media - Lzd</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D32" s="4" t="str">
         <v>KIeI2d8xalG</v>
@@ -1204,7 +1204,7 @@
         <v>Initial DST in Liquid Media - Bdq</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D33" s="5" t="str">
         <v>KjvwSybuWJU</v>
@@ -1218,7 +1218,7 @@
         <v>Subsequent DST in Liquid Media - R</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D34" s="4" t="str">
         <v>lelJEADYpeI</v>
@@ -1232,7 +1232,7 @@
         <v>Initial DST in Liquid Media - H CB</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D35" s="5" t="str">
         <v>lqaf0KfpHGd</v>
@@ -1246,7 +1246,7 @@
         <v>Initial DST in Solid Media - Mfx CB</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D36" s="4" t="str">
         <v>m4c79OHEKCG</v>
@@ -1260,7 +1260,7 @@
         <v>Subsequent DST in Liquid Media - Lzd</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D37" s="5" t="str">
         <v>mU5iEABeF2K</v>
@@ -1274,7 +1274,7 @@
         <v>Initial DST in Liquid Media - E</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D38" s="4" t="str">
         <v>n9zOOsLO0QP</v>
@@ -1288,7 +1288,7 @@
         <v>Subsequent DST in Liquid Media - Cfz</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D39" s="5" t="str">
         <v>Nb6oHqjCCZq</v>
@@ -1302,7 +1302,7 @@
         <v>Initial DST in Solid Media - Lfx</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D40" s="4" t="str">
         <v>NlOX3oV4gWe</v>
@@ -1316,7 +1316,7 @@
         <v>Subsequent DST in Solid Media - Mfx CB</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D41" s="5" t="str">
         <v>NvA1K4hFJbc</v>
@@ -1330,7 +1330,7 @@
         <v>Initial Phenotypic DST in LM (eg. Mgit)</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D42" s="4" t="str">
         <v>OQxeAIyQUeB</v>
@@ -1344,7 +1344,7 @@
         <v>Sputum Smear Microscopy</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D43" s="5" t="str">
         <v>q1ah12sKfG3</v>
@@ -1358,7 +1358,7 @@
         <v>Initial DST in Solid Media - R</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D44" s="4" t="str">
         <v>Q67DDsupq7v</v>
@@ -1372,7 +1372,7 @@
         <v>Subsequent DST in Liquid Media - Bdq</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D45" s="5" t="str">
         <v>QaioqMbO0TX</v>
@@ -1386,7 +1386,7 @@
         <v>TB Culture in Liquid Media (e.g. MGIT)</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D46" s="4" t="str">
         <v>qpAseG5vJyS</v>
@@ -1400,7 +1400,7 @@
         <v>Subsequent DST in Solid Media - Bdq</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D47" s="5" t="str">
         <v>r70ONQRhaHY</v>
@@ -1414,7 +1414,7 @@
         <v>Subsequent DST in Solid Media - Dlm</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D48" s="4" t="str">
         <v>RFqmLP5W5di</v>
@@ -1428,7 +1428,7 @@
         <v>LF-LAM</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D49" s="5" t="str">
         <v>riDIK5mvDzW</v>
@@ -1442,7 +1442,7 @@
         <v>Initial DST in Solid Media - Mfx CC</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D50" s="4" t="str">
         <v>RJNE1o9cw7Y</v>
@@ -1456,7 +1456,7 @@
         <v>Subsequent DST in Solid Media - H CB</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D51" s="5" t="str">
         <v>s8WPR943gGS</v>
@@ -1470,7 +1470,7 @@
         <v>Initial DST in Liquid Media - Lfx</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D52" s="4" t="str">
         <v>t7Okdm8VgDV</v>
@@ -1484,7 +1484,7 @@
         <v>Initial DST in Liquid Media - Mfx CB</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D53" s="5" t="str">
         <v>UL61U78GWCg</v>
@@ -1498,7 +1498,7 @@
         <v>Initial DST in Liquid Media - R</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D54" s="4" t="str">
         <v>uOJYEwV7XfN</v>
@@ -1512,7 +1512,7 @@
         <v>Initial DST in Solid Media - Bdq</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D55" s="5" t="str">
         <v>UxcTzMRQsfa</v>
@@ -1526,7 +1526,7 @@
         <v>Initial DST in Solid Media - Dlm</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D56" s="4" t="str">
         <v>VUlsMrm4D8k</v>
@@ -1540,7 +1540,7 @@
         <v>Subsequent DST in Liquid Media - Z</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D57" s="5" t="str">
         <v>VY15auehssY</v>
@@ -1554,7 +1554,7 @@
         <v>Subsequent Phenotypic DST in LM (eg. Mgit)</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D58" s="4" t="str">
         <v>W8Fm1pJuJPL</v>
@@ -1568,7 +1568,7 @@
         <v>Subsequent DST in Solid Media - E</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D59" s="5" t="str">
         <v>wNxsAieLWYc</v>
@@ -1582,7 +1582,7 @@
         <v>Initial DST in Liquid Media - Am</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D60" s="4" t="str">
         <v>x6v8O6EZo0U</v>
@@ -1596,7 +1596,7 @@
         <v>Subsequent DST in Liquid Media - Mfx CB</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D61" s="5" t="str">
         <v>xfltmyqC3p0</v>
@@ -1610,7 +1610,7 @@
         <v>Initial DST in Solid Media - Am</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D62" s="4" t="str">
         <v>XO1V9o5C95J</v>
@@ -1624,7 +1624,7 @@
         <v>Subsequent DST in Liquid Media - Dlm</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D63" s="5" t="str">
         <v>Xt5GU9kBD7q</v>
@@ -1638,7 +1638,7 @@
         <v>TB-LAMP</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D64" s="4" t="str">
         <v>yF0xR5nDSXa</v>
@@ -1652,7 +1652,7 @@
         <v>Initial DST in Solid Media - E</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D65" s="5" t="str">
         <v>yxPHZFwMTN6</v>
@@ -1666,7 +1666,7 @@
         <v>Truenat</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D66" s="4" t="str">
         <v>zBicQdPbHfj</v>
@@ -1680,7 +1680,7 @@
         <v>Subsequent DST in Liquid Media - H CC</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D67" s="5" t="str">
         <v>ZBpqH7xJLBO</v>
@@ -1694,7 +1694,7 @@
         <v>Initial DST in Solid Media - Cfz</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D68" s="4" t="str">
         <v>ZDpLleSK08x</v>
@@ -1708,7 +1708,7 @@
         <v>Subsequent DST in Solid Media - R</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D69" s="5" t="str">
         <v>zJoEjvstp2d</v>
@@ -1774,7 +1774,7 @@
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>a2I7mdEL028</v>
@@ -1797,7 +1797,7 @@
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>A2iF5Ix8pAf</v>
@@ -1820,7 +1820,7 @@
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>agZKnJWKdQK</v>
@@ -1843,7 +1843,7 @@
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>aQxta3CjJ0o</v>
@@ -1866,7 +1866,7 @@
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>ASr2gFadIie</v>
@@ -1889,7 +1889,7 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>Au1qHXm7z9n</v>
@@ -1912,7 +1912,7 @@
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>AycLmJbEv9M</v>
@@ -1935,7 +1935,7 @@
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>b32VVMA8FEV</v>
@@ -1958,7 +1958,7 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>B7uqbrRKr2T</v>
@@ -1981,7 +1981,7 @@
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G11" s="5" t="str">
         <v>b89yFC4FHtF</v>
@@ -2004,7 +2004,7 @@
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>BMBQRUWGC96</v>
@@ -2027,7 +2027,7 @@
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G13" s="5" t="str">
         <v>bNGqfxvPbPo</v>
@@ -2050,7 +2050,7 @@
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G14" s="4" t="str">
         <v>BNkkWpCKgLR</v>
@@ -2073,7 +2073,7 @@
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G15" s="5" t="str">
         <v>bXaGYMAnfNH</v>
@@ -2096,7 +2096,7 @@
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>C2owWE9gaoe</v>
@@ -2119,7 +2119,7 @@
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>CiyzVihv21K</v>
@@ -2142,7 +2142,7 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G18" s="4" t="str">
         <v>cMiU42qZMbL</v>
@@ -2165,7 +2165,7 @@
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>cQUTagw2Jtw</v>
@@ -2188,7 +2188,7 @@
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>cv1d5PIjzGb</v>
@@ -2211,7 +2211,7 @@
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>CxjSGmVSIrD</v>
@@ -2234,7 +2234,7 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G22" s="4" t="str">
         <v>d2nso3iTDyC</v>
@@ -2257,7 +2257,7 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>D4z4o6JR9M0</v>
@@ -2280,7 +2280,7 @@
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>dBjZPN1aEnN</v>
@@ -2303,7 +2303,7 @@
         <v>default</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>Dd95Kl4aXZf</v>
@@ -2326,7 +2326,7 @@
         <v>default</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>DEUPlcvyWlY</v>
@@ -2349,7 +2349,7 @@
         <v>default</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G27" s="5" t="str">
         <v>DjVjz7PNXJA</v>
@@ -2372,7 +2372,7 @@
         <v>default</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G28" s="4" t="str">
         <v>dUeTqbQ4mEz</v>
@@ -2395,7 +2395,7 @@
         <v>default</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G29" s="5" t="str">
         <v>DVEEyF5cpjB</v>
@@ -2418,7 +2418,7 @@
         <v>default</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>dwi6P6D2iFg</v>
@@ -2441,7 +2441,7 @@
         <v>default</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G31" s="5" t="str">
         <v>dyqHwVB1oij</v>
@@ -2464,7 +2464,7 @@
         <v>default</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>E61DoZgoPH2</v>
@@ -2487,7 +2487,7 @@
         <v>default</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>ea5ktuqF6xc</v>
@@ -2510,7 +2510,7 @@
         <v>default</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>Ec6plSlaIU2</v>
@@ -2533,7 +2533,7 @@
         <v>default</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>ehtg3U5qmuI</v>
@@ -2556,7 +2556,7 @@
         <v>default</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G36" s="4" t="str">
         <v>Ei5mffgPCHN</v>
@@ -2579,7 +2579,7 @@
         <v>default</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G37" s="5" t="str">
         <v>ema8JjkIDTz</v>
@@ -2602,7 +2602,7 @@
         <v>default</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>eMNDiZHLDaq</v>
@@ -2625,7 +2625,7 @@
         <v>default</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G39" s="5" t="str">
         <v>EQVtpmthuAH</v>
@@ -2648,7 +2648,7 @@
         <v>default</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G40" s="4" t="str">
         <v>eU9zyTHI4oq</v>
@@ -2671,7 +2671,7 @@
         <v>default</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>Ey5hCmNIHtp</v>
@@ -2694,7 +2694,7 @@
         <v>default</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>F4fNZ8htdHP</v>
@@ -2717,7 +2717,7 @@
         <v>default</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>F6kH0qcMT7Z</v>
@@ -2740,7 +2740,7 @@
         <v>default</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G44" s="4" t="str">
         <v>FjsunwwqBMk</v>
@@ -2763,7 +2763,7 @@
         <v>default</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>FKxBceeFNuR</v>
@@ -2786,7 +2786,7 @@
         <v>default</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G46" s="4" t="str">
         <v>Gey1agRf0Kh</v>
@@ -2809,7 +2809,7 @@
         <v>default</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>GKCCcIyrJmn</v>
@@ -2832,7 +2832,7 @@
         <v>default</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G48" s="4" t="str">
         <v>GZ5Vqh8wdI1</v>
@@ -2855,7 +2855,7 @@
         <v>default</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>Hap7vcfxJkB</v>
@@ -2878,7 +2878,7 @@
         <v>default</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>HCLjG26CmTS</v>
@@ -2901,7 +2901,7 @@
         <v>default</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G51" s="5" t="str">
         <v>HjZ2k3ZvpRU</v>
@@ -2924,7 +2924,7 @@
         <v>default</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>HkZ1hGWBqlZ</v>
@@ -2947,7 +2947,7 @@
         <v>default</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>hm58z5YMj4V</v>
@@ -2970,7 +2970,7 @@
         <v>default</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>hRFRpjD1nem</v>
@@ -2993,7 +2993,7 @@
         <v>default</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>IBqX2HMQV4T</v>
@@ -3016,7 +3016,7 @@
         <v>default</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G56" s="4" t="str">
         <v>iD9wKzRYCLc</v>
@@ -3039,7 +3039,7 @@
         <v>default</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G57" s="5" t="str">
         <v>IEQdNOn4TMd</v>
@@ -3062,7 +3062,7 @@
         <v>default</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G58" s="4" t="str">
         <v>ig6R6PnpsHv</v>
@@ -3085,7 +3085,7 @@
         <v>default</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>iGcMnwWVhKh</v>
@@ -3108,7 +3108,7 @@
         <v>default</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G60" s="4" t="str">
         <v>iiVMeXUBuyF</v>
@@ -3131,7 +3131,7 @@
         <v>default</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>il1wc9qGoUE</v>
@@ -3154,7 +3154,7 @@
         <v>default</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>iqhIJDJd1AT</v>
@@ -3177,7 +3177,7 @@
         <v>default</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G63" s="5" t="str">
         <v>IqWm68GM8iC</v>
@@ -3200,7 +3200,7 @@
         <v>default</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>IsndMvNPutD</v>
@@ -3223,7 +3223,7 @@
         <v>default</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G65" s="5" t="str">
         <v>J0DefR0gJZV</v>
@@ -3246,7 +3246,7 @@
         <v>default</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G66" s="4" t="str">
         <v>jC2yaMqEOPb</v>
@@ -3269,7 +3269,7 @@
         <v>default</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G67" s="5" t="str">
         <v>jD5CwNpVmb3</v>
@@ -3292,7 +3292,7 @@
         <v>default</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G68" s="4" t="str">
         <v>Jps4U0wxlyI</v>
@@ -3315,7 +3315,7 @@
         <v>default</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G69" s="5" t="str">
         <v>jVBbPLaiuVD</v>
@@ -3338,7 +3338,7 @@
         <v>default</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G70" s="4" t="str">
         <v>KbBzirlv7BU</v>
@@ -3361,7 +3361,7 @@
         <v>default</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G71" s="5" t="str">
         <v>KJ55m8WkSCO</v>
@@ -3384,7 +3384,7 @@
         <v>default</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G72" s="4" t="str">
         <v>kK2Y5O5urC0</v>
@@ -3407,7 +3407,7 @@
         <v>default</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G73" s="5" t="str">
         <v>KWijdprKE8o</v>
@@ -3430,7 +3430,7 @@
         <v>default</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G74" s="4" t="str">
         <v>Lf02pJ3jScn</v>
@@ -3453,7 +3453,7 @@
         <v>default</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G75" s="5" t="str">
         <v>LgnTOBA3Fuk</v>
@@ -3476,7 +3476,7 @@
         <v>default</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G76" s="4" t="str">
         <v>Lj1yD6S1Qio</v>
@@ -3499,7 +3499,7 @@
         <v>default</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G77" s="5" t="str">
         <v>lmXKhJA5nk1</v>
@@ -3522,7 +3522,7 @@
         <v>default</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G78" s="4" t="str">
         <v>LOo4b0NvlQx</v>
@@ -3545,7 +3545,7 @@
         <v>default</v>
       </c>
       <c r="F79" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G79" s="5" t="str">
         <v>Lr8yX1aTLf4</v>
@@ -3568,7 +3568,7 @@
         <v>default</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G80" s="4" t="str">
         <v>LRfRdS1tsMK</v>
@@ -3591,7 +3591,7 @@
         <v>default</v>
       </c>
       <c r="F81" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G81" s="5" t="str">
         <v>m1qdvx91gZz</v>
@@ -3614,7 +3614,7 @@
         <v>default</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G82" s="4" t="str">
         <v>M3tqCBDxR4a</v>
@@ -3637,7 +3637,7 @@
         <v>default</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G83" s="5" t="str">
         <v>MAItgXvlO5L</v>
@@ -3660,7 +3660,7 @@
         <v>default</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G84" s="4" t="str">
         <v>mFCcHXpopRD</v>
@@ -3683,7 +3683,7 @@
         <v>default</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G85" s="5" t="str">
         <v>MFfdhf9yuYD</v>
@@ -3706,7 +3706,7 @@
         <v>default</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G86" s="4" t="str">
         <v>mVw0FXMqDK8</v>
@@ -3729,7 +3729,7 @@
         <v>default</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G87" s="5" t="str">
         <v>Na38GSfYww7</v>
@@ -3752,7 +3752,7 @@
         <v>default</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G88" s="4" t="str">
         <v>nBVHqtynKKg</v>
@@ -3775,7 +3775,7 @@
         <v>default</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G89" s="5" t="str">
         <v>nG3H0zGCpXg</v>
@@ -3798,7 +3798,7 @@
         <v>default</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G90" s="4" t="str">
         <v>NIiZmSVFoFD</v>
@@ -3821,7 +3821,7 @@
         <v>default</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G91" s="5" t="str">
         <v>nnUlbhRUewx</v>
@@ -3844,7 +3844,7 @@
         <v>default</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G92" s="4" t="str">
         <v>nulxcFUqHFK</v>
@@ -3867,7 +3867,7 @@
         <v>default</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G93" s="5" t="str">
         <v>oKdArKmQaar</v>
@@ -3890,7 +3890,7 @@
         <v>default</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G94" s="4" t="str">
         <v>OlsWZhqz8ff</v>
@@ -3913,7 +3913,7 @@
         <v>default</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G95" s="5" t="str">
         <v>oVK7axGLOks</v>
@@ -3936,7 +3936,7 @@
         <v>default</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G96" s="4" t="str">
         <v>oXBlG5tNThH</v>
@@ -3959,7 +3959,7 @@
         <v>default</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G97" s="5" t="str">
         <v>OXN8xMgpVvC</v>
@@ -3982,7 +3982,7 @@
         <v>default</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G98" s="4" t="str">
         <v>OZV3tzf7bux</v>
@@ -4005,7 +4005,7 @@
         <v>default</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G99" s="5" t="str">
         <v>P282EjwlnqS</v>
@@ -4028,7 +4028,7 @@
         <v>default</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G100" s="4" t="str">
         <v>p3L4HYkzU4o</v>
@@ -4051,7 +4051,7 @@
         <v>default</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G101" s="5" t="str">
         <v>peAahjwkqNX</v>
@@ -4074,7 +4074,7 @@
         <v>default</v>
       </c>
       <c r="F102" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G102" s="4" t="str">
         <v>Ps4JPDTACGB</v>
@@ -4097,7 +4097,7 @@
         <v>default</v>
       </c>
       <c r="F103" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G103" s="5" t="str">
         <v>pTRWioGFFod</v>
@@ -4120,7 +4120,7 @@
         <v>default</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G104" s="4" t="str">
         <v>Pvok4dVDC9n</v>
@@ -4143,7 +4143,7 @@
         <v>default</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G105" s="5" t="str">
         <v>pXViXBpKM6Y</v>
@@ -4166,7 +4166,7 @@
         <v>default</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G106" s="4" t="str">
         <v>QDa04y5c0Bf</v>
@@ -4189,7 +4189,7 @@
         <v>default</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G107" s="5" t="str">
         <v>qhbOlKrEPzT</v>
@@ -4212,7 +4212,7 @@
         <v>default</v>
       </c>
       <c r="F108" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G108" s="4" t="str">
         <v>qL9526SBPRh</v>
@@ -4235,7 +4235,7 @@
         <v>default</v>
       </c>
       <c r="F109" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G109" s="5" t="str">
         <v>QQEolquguCi</v>
@@ -4258,7 +4258,7 @@
         <v>default</v>
       </c>
       <c r="F110" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G110" s="4" t="str">
         <v>qt2LpZN8Hb3</v>
@@ -4281,7 +4281,7 @@
         <v>default</v>
       </c>
       <c r="F111" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G111" s="5" t="str">
         <v>R25K2kAAG4g</v>
@@ -4304,7 +4304,7 @@
         <v>default</v>
       </c>
       <c r="F112" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G112" s="4" t="str">
         <v>R4Lknzhufeh</v>
@@ -4327,7 +4327,7 @@
         <v>default</v>
       </c>
       <c r="F113" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G113" s="5" t="str">
         <v>R9DL4SaAImg</v>
@@ -4350,7 +4350,7 @@
         <v>default</v>
       </c>
       <c r="F114" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G114" s="4" t="str">
         <v>RAtv78ZXQec</v>
@@ -4373,7 +4373,7 @@
         <v>default</v>
       </c>
       <c r="F115" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G115" s="5" t="str">
         <v>rjMeZmOEivb</v>
@@ -4396,7 +4396,7 @@
         <v>default</v>
       </c>
       <c r="F116" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G116" s="4" t="str">
         <v>RL1d3jJf16t</v>
@@ -4419,7 +4419,7 @@
         <v>default</v>
       </c>
       <c r="F117" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G117" s="5" t="str">
         <v>ruxlza6qoxK</v>
@@ -4442,7 +4442,7 @@
         <v>default</v>
       </c>
       <c r="F118" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G118" s="4" t="str">
         <v>s84QVMsGP0W</v>
@@ -4465,7 +4465,7 @@
         <v>default</v>
       </c>
       <c r="F119" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G119" s="5" t="str">
         <v>Sd91IsXISjp</v>
@@ -4488,7 +4488,7 @@
         <v>default</v>
       </c>
       <c r="F120" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G120" s="4" t="str">
         <v>T1KNskHm0zg</v>
@@ -4511,7 +4511,7 @@
         <v>default</v>
       </c>
       <c r="F121" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G121" s="5" t="str">
         <v>T9YJ0gs7n3n</v>
@@ -4534,7 +4534,7 @@
         <v>default</v>
       </c>
       <c r="F122" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G122" s="4" t="str">
         <v>TgqKqIBTJ6U</v>
@@ -4557,7 +4557,7 @@
         <v>default</v>
       </c>
       <c r="F123" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G123" s="5" t="str">
         <v>TJLwFGwpGFU</v>
@@ -4580,7 +4580,7 @@
         <v>default</v>
       </c>
       <c r="F124" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G124" s="4" t="str">
         <v>TPeXlGuQWUQ</v>
@@ -4603,7 +4603,7 @@
         <v>default</v>
       </c>
       <c r="F125" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G125" s="5" t="str">
         <v>tqSvdlcVdWn</v>
@@ -4626,7 +4626,7 @@
         <v>default</v>
       </c>
       <c r="F126" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G126" s="4" t="str">
         <v>trTuuZ9xWgs</v>
@@ -4649,7 +4649,7 @@
         <v>default</v>
       </c>
       <c r="F127" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G127" s="5" t="str">
         <v>TX30Ikr7clr</v>
@@ -4672,7 +4672,7 @@
         <v>default</v>
       </c>
       <c r="F128" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G128" s="4" t="str">
         <v>u1y2NS6qoIL</v>
@@ -4695,7 +4695,7 @@
         <v>default</v>
       </c>
       <c r="F129" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G129" s="5" t="str">
         <v>uaewAATQgBJ</v>
@@ -4718,7 +4718,7 @@
         <v>default</v>
       </c>
       <c r="F130" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G130" s="4" t="str">
         <v>UAlFUPZp8Kt</v>
@@ -4741,7 +4741,7 @@
         <v>default</v>
       </c>
       <c r="F131" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G131" s="5" t="str">
         <v>uEV8flIOeYI</v>
@@ -4764,7 +4764,7 @@
         <v>default</v>
       </c>
       <c r="F132" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G132" s="4" t="str">
         <v>uFkaH9jzpcp</v>
@@ -4787,7 +4787,7 @@
         <v>default</v>
       </c>
       <c r="F133" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G133" s="5" t="str">
         <v>ug1acEAsTfd</v>
@@ -4810,7 +4810,7 @@
         <v>default</v>
       </c>
       <c r="F134" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G134" s="4" t="str">
         <v>uI7p5xLE1C8</v>
@@ -4833,7 +4833,7 @@
         <v>default</v>
       </c>
       <c r="F135" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G135" s="5" t="str">
         <v>UIzR3p4nlMI</v>
@@ -4856,7 +4856,7 @@
         <v>default</v>
       </c>
       <c r="F136" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G136" s="4" t="str">
         <v>UJ7JPl1LB9y</v>
@@ -4879,7 +4879,7 @@
         <v>default</v>
       </c>
       <c r="F137" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G137" s="5" t="str">
         <v>ujCxCam6D0L</v>
@@ -4902,7 +4902,7 @@
         <v>default</v>
       </c>
       <c r="F138" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G138" s="4" t="str">
         <v>un8hXdOPwzh</v>
@@ -4925,7 +4925,7 @@
         <v>default</v>
       </c>
       <c r="F139" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G139" s="5" t="str">
         <v>USgo6lDw8By</v>
@@ -4948,7 +4948,7 @@
         <v>default</v>
       </c>
       <c r="F140" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G140" s="4" t="str">
         <v>V2Iyaaznzs5</v>
@@ -4971,7 +4971,7 @@
         <v>default</v>
       </c>
       <c r="F141" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G141" s="5" t="str">
         <v>V6RVBzCr3Kl</v>
@@ -4994,7 +4994,7 @@
         <v>default</v>
       </c>
       <c r="F142" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G142" s="4" t="str">
         <v>vezbpFOckNI</v>
@@ -5017,7 +5017,7 @@
         <v>default</v>
       </c>
       <c r="F143" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G143" s="5" t="str">
         <v>vKSjnMPHR6F</v>
@@ -5040,7 +5040,7 @@
         <v>default</v>
       </c>
       <c r="F144" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G144" s="4" t="str">
         <v>VpFIxl7ZX7n</v>
@@ -5063,7 +5063,7 @@
         <v>default</v>
       </c>
       <c r="F145" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G145" s="5" t="str">
         <v>VSuQ1rwL2nA</v>
@@ -5086,7 +5086,7 @@
         <v>default</v>
       </c>
       <c r="F146" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G146" s="4" t="str">
         <v>vVLgOXwlIVj</v>
@@ -5109,7 +5109,7 @@
         <v>default</v>
       </c>
       <c r="F147" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G147" s="5" t="str">
         <v>Wg7Df5kgpaF</v>
@@ -5132,7 +5132,7 @@
         <v>default</v>
       </c>
       <c r="F148" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G148" s="4" t="str">
         <v>wgEYFWwfv7z</v>
@@ -5155,7 +5155,7 @@
         <v>default</v>
       </c>
       <c r="F149" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G149" s="5" t="str">
         <v>wi4NRarMSuv</v>
@@ -5178,7 +5178,7 @@
         <v>default</v>
       </c>
       <c r="F150" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G150" s="4" t="str">
         <v>WLaOsGs9ujA</v>
@@ -5201,7 +5201,7 @@
         <v>default</v>
       </c>
       <c r="F151" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G151" s="5" t="str">
         <v>WrG6slZ7nlG</v>
@@ -5224,7 +5224,7 @@
         <v>default</v>
       </c>
       <c r="F152" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G152" s="4" t="str">
         <v>wtZuz8Im69G</v>
@@ -5247,7 +5247,7 @@
         <v>default</v>
       </c>
       <c r="F153" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G153" s="5" t="str">
         <v>wzPWimo6vO3</v>
@@ -5270,7 +5270,7 @@
         <v>default</v>
       </c>
       <c r="F154" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G154" s="4" t="str">
         <v>x8RVc1REj1q</v>
@@ -5293,7 +5293,7 @@
         <v>default</v>
       </c>
       <c r="F155" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G155" s="5" t="str">
         <v>xagezRGPgQo</v>
@@ -5316,7 +5316,7 @@
         <v>default</v>
       </c>
       <c r="F156" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G156" s="4" t="str">
         <v>XcVFoGVN5Bu</v>
@@ -5339,7 +5339,7 @@
         <v>default</v>
       </c>
       <c r="F157" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G157" s="5" t="str">
         <v>XfqbpoBl2VS</v>
@@ -5362,7 +5362,7 @@
         <v>default</v>
       </c>
       <c r="F158" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G158" s="4" t="str">
         <v>xP5C3zmYXde</v>
@@ -5385,7 +5385,7 @@
         <v>default</v>
       </c>
       <c r="F159" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G159" s="5" t="str">
         <v>xyczZvsuaWr</v>
@@ -5408,7 +5408,7 @@
         <v>default</v>
       </c>
       <c r="F160" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G160" s="4" t="str">
         <v>xZfTs7RfeIU</v>
@@ -5431,7 +5431,7 @@
         <v>default</v>
       </c>
       <c r="F161" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G161" s="5" t="str">
         <v>Y1VpjCBrpEc</v>
@@ -5454,7 +5454,7 @@
         <v>default</v>
       </c>
       <c r="F162" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G162" s="4" t="str">
         <v>Y4W9L0ROIts</v>
@@ -5477,7 +5477,7 @@
         <v>default</v>
       </c>
       <c r="F163" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G163" s="5" t="str">
         <v>yiGr4JTFLv3</v>
@@ -5500,7 +5500,7 @@
         <v>default</v>
       </c>
       <c r="F164" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G164" s="4" t="str">
         <v>yIyB5VNxh1O</v>
@@ -5523,7 +5523,7 @@
         <v>default</v>
       </c>
       <c r="F165" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G165" s="5" t="str">
         <v>yQzILNttTKR</v>
@@ -5546,7 +5546,7 @@
         <v>default</v>
       </c>
       <c r="F166" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G166" s="4" t="str">
         <v>Yt8rEcU2HKC</v>
@@ -5569,7 +5569,7 @@
         <v>default</v>
       </c>
       <c r="F167" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G167" s="5" t="str">
         <v>yxz1b5sB5sg</v>
@@ -5592,7 +5592,7 @@
         <v>default</v>
       </c>
       <c r="F168" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G168" s="4" t="str">
         <v>z0j1fZQHoSB</v>
@@ -5615,7 +5615,7 @@
         <v>default</v>
       </c>
       <c r="F169" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="G169" s="5" t="str">
         <v>zcmsN575vwZ</v>
@@ -5638,7 +5638,7 @@
         <v>default</v>
       </c>
       <c r="F170" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G170" s="4" t="str">
         <v>Zd7703kfnOC</v>
@@ -5661,7 +5661,7 @@
         <v>default</v>
       </c>
       <c r="F171" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G171" s="5" t="str">
         <v>Zos365qSyj0</v>
@@ -5684,7 +5684,7 @@
         <v>default</v>
       </c>
       <c r="F172" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="G172" s="4" t="str">
         <v>ZSL9PI7Kbsa</v>
@@ -7117,7 +7117,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -7162,7 +7162,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-11-03</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -7203,7 +7203,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -7241,7 +7241,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -7283,7 +7283,7 @@
         <v>Yes/No/Unknown</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -7297,7 +7297,7 @@
         <v>TB treatment history</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>cEiPBSWUO5S</v>
@@ -7311,7 +7311,7 @@
         <v>TB treatment category</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>dT4kJgZc1lj</v>
@@ -7325,7 +7325,7 @@
         <v>TB DST result</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ekhfzhURD44</v>
@@ -7339,7 +7339,7 @@
         <v>TB MTB test result</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>eUBlAbh0g2h</v>
@@ -7353,7 +7353,7 @@
         <v>Sex</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2020-09-02</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>hiQ3QFheQ3O</v>
@@ -7367,7 +7367,7 @@
         <v>TB treatment outcome</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>ITvFkEpEsfp</v>
@@ -7381,7 +7381,7 @@
         <v>TB site of disease</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C9" s="5" t="str">
         <v>jcuKftMQQaa</v>
@@ -7395,7 +7395,7 @@
         <v>TB Resistance Classification</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>kWeUuhzCjD6</v>
@@ -7409,7 +7409,7 @@
         <v>TB - Denotification reasons</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>nJY9CwyaYij</v>
@@ -7423,7 +7423,7 @@
         <v>TB DRS LPA Specimen</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>oKESbY0JpLt</v>
@@ -7437,7 +7437,7 @@
         <v>Susceptible/Resistant/Indeterminate</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C13" s="5" t="str">
         <v>q75AsvLUWVp</v>
@@ -7451,7 +7451,7 @@
         <v>TB Final Culture Result</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>rB88xT5ggFg</v>
@@ -7465,7 +7465,7 @@
         <v>Positive/Negative</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>WaV48ymJu9V</v>
@@ -7520,7 +7520,7 @@
         <v>DETECTED</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>eUBlAbh0g2h</v>
@@ -7537,7 +7537,7 @@
         <v>FEMALE</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>hiQ3QFheQ3O</v>
@@ -7554,7 +7554,7 @@
         <v>MDR</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>kWeUuhzCjD6</v>
@@ -7571,7 +7571,7 @@
         <v>INDETERMINATE</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>q75AsvLUWVp</v>
@@ -7588,7 +7588,7 @@
         <v>NOT_TB</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>nJY9CwyaYij</v>
@@ -7605,7 +7605,7 @@
         <v>INDETERMINATE</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>ekhfzhURD44</v>
@@ -7622,7 +7622,7 @@
         <v>DIED</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>ITvFkEpEsfp</v>
@@ -7639,7 +7639,7 @@
         <v>YES</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>bLA3AqDKdwx</v>
@@ -7656,7 +7656,7 @@
         <v>CONTAMINATED</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>ekhfzhURD44</v>
@@ -7673,7 +7673,7 @@
         <v>NOT_EVALUATED</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>ITvFkEpEsfp</v>
@@ -7690,7 +7690,7 @@
         <v>FAILURE</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>ITvFkEpEsfp</v>
@@ -7707,7 +7707,7 @@
         <v>DUPLICATE</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>nJY9CwyaYij</v>
@@ -7724,7 +7724,7 @@
         <v>SITE_BOTH</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>jcuKftMQQaa</v>
@@ -7741,7 +7741,7 @@
         <v>LOST_TO_FOLLOW_UP</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>ITvFkEpEsfp</v>
@@ -7758,7 +7758,7 @@
         <v>ERROR</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>eUBlAbh0g2h</v>
@@ -7775,7 +7775,7 @@
         <v>SPUTUM_SAMPLES_OR_SEDIMENTS</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>oKESbY0JpLt</v>
@@ -7792,7 +7792,7 @@
         <v>NO_GROWTH</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>rB88xT5ggFg</v>
@@ -7809,7 +7809,7 @@
         <v>CONTAMINATED</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>rB88xT5ggFg</v>
@@ -7826,7 +7826,7 @@
         <v>FIRST_LINE_TREATMENT</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>dT4kJgZc1lj</v>
@@ -7843,7 +7843,7 @@
         <v>XDR</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>kWeUuhzCjD6</v>
@@ -7860,7 +7860,7 @@
         <v>SUSCEPTIBLE</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>ekhfzhURD44</v>
@@ -7877,7 +7877,7 @@
         <v>NEGATIVE</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>WaV48ymJu9V</v>
@@ -7894,7 +7894,7 @@
         <v>HISTORY_OTHER_PREV</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>cEiPBSWUO5S</v>
@@ -7911,7 +7911,7 @@
         <v>SITE_EXTRA_PULMONARY</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>jcuKftMQQaa</v>
@@ -7928,7 +7928,7 @@
         <v>DS</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>kWeUuhzCjD6</v>
@@ -7945,7 +7945,7 @@
         <v>RESISTANT</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E27" s="5" t="str">
         <v>q75AsvLUWVp</v>
@@ -7962,7 +7962,7 @@
         <v>SITE_PULMONARY</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>jcuKftMQQaa</v>
@@ -7979,7 +7979,7 @@
         <v>SUSCEPTIBLE</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>q75AsvLUWVp</v>
@@ -7996,7 +7996,7 @@
         <v>NO</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -8013,7 +8013,7 @@
         <v>SECOND_LINE_TREATMENT</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>dT4kJgZc1lj</v>
@@ -8030,7 +8030,7 @@
         <v>HISTORY_LOST_TO_FOLLOWUP</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>cEiPBSWUO5S</v>
@@ -8047,7 +8047,7 @@
         <v>HISTORY_RELAPSE</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>cEiPBSWUO5S</v>
@@ -8064,7 +8064,7 @@
         <v>HISTORY_FAILED</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2020-10-10</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>cEiPBSWUO5S</v>
@@ -8081,7 +8081,7 @@
         <v>HISTORY_UNKNOWN</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2020-06-28</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E35" s="5" t="str">
         <v>cEiPBSWUO5S</v>
@@ -8098,7 +8098,7 @@
         <v>RESISTANT</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>ekhfzhURD44</v>
@@ -8115,7 +8115,7 @@
         <v>UNKNOWN</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>bLA3AqDKdwx</v>
@@ -8132,7 +8132,7 @@
         <v>RR</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E38" s="4" t="str">
         <v>kWeUuhzCjD6</v>
@@ -8149,7 +8149,7 @@
         <v>CURED</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E39" s="5" t="str">
         <v>ITvFkEpEsfp</v>
@@ -8166,7 +8166,7 @@
         <v>MALE</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>hiQ3QFheQ3O</v>
@@ -8183,7 +8183,7 @@
         <v>MTB</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>rB88xT5ggFg</v>
@@ -8200,7 +8200,7 @@
         <v>HISTORY_NEW</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E42" s="4" t="str">
         <v>cEiPBSWUO5S</v>
@@ -8217,7 +8217,7 @@
         <v>NOT_DETECTED</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E43" s="5" t="str">
         <v>eUBlAbh0g2h</v>
@@ -8234,7 +8234,7 @@
         <v>NTM</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E44" s="4" t="str">
         <v>rB88xT5ggFg</v>
@@ -8251,7 +8251,7 @@
         <v>COMPLETED</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E45" s="5" t="str">
         <v>ITvFkEpEsfp</v>
@@ -8268,7 +8268,7 @@
         <v>MTB_CULTURE_ISOLATES</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E46" s="4" t="str">
         <v>oKESbY0JpLt</v>
@@ -8285,7 +8285,7 @@
         <v>POSITIVE</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E47" s="5" t="str">
         <v>WaV48ymJu9V</v>
@@ -8323,7 +8323,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-10-10</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -8368,7 +8368,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>tAKC8OODCJl</v>
@@ -8455,7 +8455,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>tAKC8OODCJl</v>
@@ -8487,7 +8487,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>tAKC8OODCJl</v>
@@ -8519,7 +8519,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>tAKC8OODCJl</v>
@@ -8551,7 +8551,7 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>tAKC8OODCJl</v>
@@ -8583,7 +8583,7 @@
         <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>tAKC8OODCJl</v>
@@ -8615,7 +8615,7 @@
         <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>tAKC8OODCJl</v>
@@ -8647,7 +8647,7 @@
         <v>Percentage</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>tAKC8OODCJl</v>
@@ -8692,7 +8692,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-07-08</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>e1jRVY5Mcq0</v>
@@ -8737,7 +8737,7 @@
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>ByComvoqyPP</v>
@@ -8751,7 +8751,7 @@
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>GKaacrZF7iJ</v>
@@ -8765,7 +8765,7 @@
         <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>rfOllbK3gIL</v>
@@ -12026,7 +12026,7 @@
         <v>TB Reports</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-07-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>SZyUynAiGgM</v>
@@ -12037,7 +12037,7 @@
         <v>TB core indicators</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-09-22</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>TFr3hdGobbN</v>
@@ -12096,7 +12096,7 @@
         <v>Fl5vtUKBEJT</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2020-07-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>SZyUynAiGgM</v>
@@ -12116,7 +12116,7 @@
         <v>v9Jx3HNqpmi</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2020-07-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>SZyUynAiGgM</v>
@@ -12136,7 +12136,7 @@
         <v>cCtA7jBYlk8</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2020-07-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>SZyUynAiGgM</v>
@@ -12156,7 +12156,7 @@
         <v>wbASm5U5KZc</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2020-07-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>SZyUynAiGgM</v>
@@ -12176,7 +12176,7 @@
         <v>bW2PsggnaGu</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2020-07-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>SZyUynAiGgM</v>
@@ -12196,7 +12196,7 @@
         <v>ojNG3Cbdqxj</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2020-07-30</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>TFr3hdGobbN</v>
@@ -12216,7 +12216,7 @@
         <v>LGv7gNyRqZf</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2020-07-30</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F8" s="4" t="str">
         <v>TFr3hdGobbN</v>
@@ -12236,7 +12236,7 @@
         <v>l4cePGpOtMs</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2020-07-30</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F9" s="5" t="str">
         <v>TFr3hdGobbN</v>
@@ -12256,7 +12256,7 @@
         <v>Yym4lPBxgV3</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2020-07-30</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>TFr3hdGobbN</v>
@@ -12276,7 +12276,7 @@
         <v>yDxYB4UabGH</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2020-07-30</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>TFr3hdGobbN</v>
@@ -12296,7 +12296,7 @@
         <v>WTGWZmCX1Wx</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2020-07-30</v>
+        <v>2020-11-04</v>
       </c>
       <c r="F12" s="4" t="str">
         <v>TFr3hdGobbN</v>
@@ -12341,7 +12341,7 @@
         <v>Treatment outcomes for DS-TB new and relapse (%) - current quarter</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16T09:08:57.960</v>
+        <v>2020-11-04T09:57:09.513</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>bZ3BsrJ1lXH</v>
@@ -12355,7 +12355,7 @@
         <v>TB/HIV cascade of care - current quarter</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-10-16T09:08:58.167</v>
+        <v>2020-11-04T09:57:09.516</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>lYgjQOu3G2e</v>
@@ -12369,7 +12369,7 @@
         <v>TB case notifications (all cases, all forms) - current quarter</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-10-16T09:08:58.403</v>
+        <v>2020-11-04T09:57:09.518</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>ruHUaT9geGr</v>
@@ -12383,7 +12383,7 @@
         <v>Cascade of care for RR/MDR-TB - current quarter</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-10-16T09:08:58.589</v>
+        <v>2020-11-04T09:57:09.518</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>wvZJ7I88BQf</v>
@@ -12397,7 +12397,7 @@
         <v>Treatment success rate for new and relapse DS-TB (%)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2020-10-16T09:08:57.762</v>
+        <v>2020-11-05T09:47:45.805</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>Z9P1vqpyOQC</v>
@@ -12442,7 +12442,7 @@
         <v>TB Case notifications by facility (all cases, all forms)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>N6MAiuCeFF0</v>
@@ -12487,7 +12487,7 @@
         <v>Delays in TB Treatment initiation - this year, last five years</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>bd1eqZ3DeA4</v>
@@ -12501,7 +12501,7 @@
         <v>List of patients with no outcome</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>bTvGzCZecxK</v>
@@ -12515,7 +12515,7 @@
         <v>This is a list of all TB patients whose HIV infection status is unknown. Please review these patients and consider testing them for HIV or enter the data if the status is known.</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>q4HUtieyl1s</v>
@@ -12529,7 +12529,7 @@
         <v>List of patients with no treatment initiation date</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>qmuoJ2ROwUb</v>
@@ -12543,7 +12543,7 @@
         <v>Overview of all patients - current year</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="D6" s="4" t="str">
         <v>wWwqzbkVF5G</v>
@@ -12636,7 +12636,7 @@
         <v>All current TB patients</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-06-15</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>DDYEZxtXUoJ</v>
@@ -12647,7 +12647,7 @@
         <v>Outcome record missing</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-06-15</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>mrhsMwDhxfc</v>
@@ -12658,7 +12658,7 @@
         <v>Enrollment completion pending</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-06-19</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>Q8v3oAYr09t</v>
@@ -12669,7 +12669,7 @@
         <v>Treatment initiation pending</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2020-06-15</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>xOeDy8UoNoL</v>
@@ -12707,7 +12707,7 @@
         <v>TB access</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-10-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>pyu2ZlNKbzQ</v>
@@ -12718,7 +12718,7 @@
         <v>TB admin</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-10-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>Ubzlyfqm1gO</v>
@@ -12729,7 +12729,7 @@
         <v>TB data capture</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-10-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>UKWx4jJcrKt</v>
@@ -12740,7 +12740,7 @@
         <v>TB lab data capture</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2020-10-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>zBZXkRW0PJy</v>
@@ -12778,7 +12778,7 @@
         <v>who</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-07-07</v>
+        <v>2020-11-04</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>vUeLeQMSwhN</v>
@@ -12830,7 +12830,7 @@
         <v>Family name of the patient</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>aW66s2QSosT</v>
@@ -12847,7 +12847,7 @@
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-10-10</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>ciCR6BBvIT4</v>
@@ -12864,7 +12864,7 @@
         <v>Sex of Person</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>CklPZdOd6H1</v>
@@ -12881,7 +12881,7 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>Ewi7FUfcHAD</v>
@@ -12898,7 +12898,7 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2020-10-12</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>ljHL8NnSEAD</v>
@@ -12915,7 +12915,7 @@
         <v>Date of birth plus calculated age</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>mAWcalQYYyk</v>
@@ -12932,7 +12932,7 @@
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>ntelZthDPpR</v>
@@ -12949,7 +12949,7 @@
         <v>The name of the patient or initials</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>TfdH5KvFmMy</v>
@@ -12966,7 +12966,7 @@
         <v>Current home address of the patient</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>VCtm2pySeEV</v>
@@ -12983,7 +12983,7 @@
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2020-06-29</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>xdRQzKcARGt</v>
@@ -13000,7 +13000,7 @@
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>Z1rLc1rVHK8</v>
@@ -13045,7 +13045,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -13090,7 +13090,7 @@
         <v>mPdMZNWVrOQ</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2020-09-22T12:31:20.870</v>
+        <v>2020-11-05T09:46:15.063</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -13104,7 +13104,7 @@
         <v>ODD4lMPm0JX</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2020-09-22T12:31:20.867</v>
+        <v>2020-11-05T09:46:14.873</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -13118,7 +13118,7 @@
         <v>RB3a5MXMe8g</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2020-09-22T12:31:20.884</v>
+        <v>2020-11-05T09:46:14.676</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -13132,7 +13132,7 @@
         <v>UZn8sMwz7Nm</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2020-09-22T12:31:20.889</v>
+        <v>2020-11-05T08:39:48.202</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -14798,10 +14798,10 @@
         <v>Treatment</v>
       </c>
       <c r="B150" s="4" t="str">
-        <v>First-line</v>
+        <v>Second-line (Other)</v>
       </c>
       <c r="C150" s="4" t="str">
-        <v>Treatment First-line - H</v>
+        <v>Treatment Second-line - Other</v>
       </c>
     </row>
     <row r="151">
@@ -14809,10 +14809,10 @@
         <v>Treatment</v>
       </c>
       <c r="B151" s="5" t="str">
-        <v>Second-line (Other)</v>
+        <v>First-line</v>
       </c>
       <c r="C151" s="5" t="str">
-        <v>Treatment Second-line - Other</v>
+        <v>Treatment First-line - H</v>
       </c>
     </row>
     <row r="152">
@@ -14820,10 +14820,10 @@
         <v>Treatment</v>
       </c>
       <c r="B152" s="4" t="str">
-        <v>Second-line (Other)</v>
+        <v>Treatment status</v>
       </c>
       <c r="C152" s="4" t="str">
-        <v>Treatment Second-line - Other drug - specify</v>
+        <v>TB first-line treatment start date</v>
       </c>
     </row>
     <row r="153">
@@ -14842,10 +14842,10 @@
         <v>Treatment</v>
       </c>
       <c r="B154" s="4" t="str">
-        <v>Treatment status</v>
+        <v>Second-line (Other)</v>
       </c>
       <c r="C154" s="4" t="str">
-        <v>TB first-line treatment start date</v>
+        <v>Treatment Second-line - Other drug - specify</v>
       </c>
     </row>
     <row r="155">
@@ -14853,10 +14853,10 @@
         <v>Treatment</v>
       </c>
       <c r="B155" s="5" t="str">
-        <v>Second-line (Other)</v>
+        <v>Treatment status</v>
       </c>
       <c r="C155" s="5" t="str">
-        <v>Treatment Second-line - Amx/Clv</v>
+        <v>TB: second-line treatment start date</v>
       </c>
     </row>
     <row r="156">
@@ -14864,10 +14864,10 @@
         <v>Treatment</v>
       </c>
       <c r="B156" s="4" t="str">
-        <v>Treatment status</v>
+        <v>Second-line (Other)</v>
       </c>
       <c r="C156" s="4" t="str">
-        <v>TB: second-line treatment start date</v>
+        <v>Treatment Second-line - Amx/Clv</v>
       </c>
     </row>
     <row r="157">
@@ -15113,7 +15113,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H2" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15139,7 +15139,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H3" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15165,7 +15165,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H4" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15191,7 +15191,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H5" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15217,7 +15217,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15243,7 +15243,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H7" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15269,7 +15269,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H8" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15295,7 +15295,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H9" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15321,7 +15321,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H10" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15347,7 +15347,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H11" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15373,7 +15373,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H12" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15399,7 +15399,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H13" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15425,7 +15425,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H14" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15451,7 +15451,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H15" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15477,7 +15477,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15503,7 +15503,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H17" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15529,7 +15529,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H18" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15555,7 +15555,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H19" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15581,7 +15581,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H20" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15607,7 +15607,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H21" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15633,7 +15633,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H22" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15659,7 +15659,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H23" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15685,7 +15685,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2020-10-10</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H24" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15711,7 +15711,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H25" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15737,7 +15737,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H26" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15763,7 +15763,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H27" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15789,7 +15789,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H28" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15815,7 +15815,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H29" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15841,7 +15841,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H30" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15867,7 +15867,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H31" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15893,7 +15893,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H32" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15919,7 +15919,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H33" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15945,7 +15945,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H34" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15971,7 +15971,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H35" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -15997,7 +15997,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H36" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16023,7 +16023,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H37" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16049,7 +16049,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H38" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16075,7 +16075,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H39" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16101,7 +16101,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H40" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16127,7 +16127,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H41" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16153,7 +16153,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H42" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16179,7 +16179,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H43" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16205,7 +16205,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H44" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16231,7 +16231,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H45" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16257,7 +16257,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H46" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16283,7 +16283,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H47" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16309,7 +16309,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H48" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16335,7 +16335,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H49" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16361,7 +16361,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G50" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H50" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16387,7 +16387,7 @@
         <v>EVENT</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H51" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16413,7 +16413,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G52" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H52" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16439,7 +16439,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H53" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16465,7 +16465,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G54" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H54" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16491,7 +16491,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H55" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16517,7 +16517,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H56" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16543,7 +16543,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H57" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16569,7 +16569,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H58" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16595,7 +16595,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G59" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H59" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16621,7 +16621,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H60" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16647,7 +16647,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G61" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H61" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16673,7 +16673,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H62" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16699,7 +16699,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G63" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H63" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16725,7 +16725,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G64" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H64" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16751,7 +16751,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G65" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H65" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16777,7 +16777,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H66" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16803,7 +16803,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G67" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H67" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16829,7 +16829,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H68" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16855,7 +16855,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G69" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H69" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16881,7 +16881,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H70" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16907,7 +16907,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G71" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H71" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16933,7 +16933,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H72" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16959,7 +16959,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G73" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H73" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -16985,7 +16985,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H74" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17011,7 +17011,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G75" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H75" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17037,7 +17037,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G76" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H76" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17063,7 +17063,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H77" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17089,7 +17089,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H78" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17115,7 +17115,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G79" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H79" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17141,7 +17141,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G80" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H80" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17167,7 +17167,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G81" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H81" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17193,7 +17193,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H82" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17219,7 +17219,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G83" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H83" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17245,7 +17245,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H84" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17271,7 +17271,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G85" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H85" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17297,7 +17297,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G86" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H86" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17323,7 +17323,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G87" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H87" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17349,7 +17349,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H88" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17375,7 +17375,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G89" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H89" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17401,7 +17401,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G90" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H90" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17427,7 +17427,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G91" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H91" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17453,7 +17453,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G92" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H92" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17479,7 +17479,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G93" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H93" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17505,7 +17505,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H94" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17531,7 +17531,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G95" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H95" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17557,7 +17557,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H96" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17583,7 +17583,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G97" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H97" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17609,7 +17609,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H98" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17635,7 +17635,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G99" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H99" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17661,7 +17661,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G100" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H100" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17687,7 +17687,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G101" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H101" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17713,7 +17713,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G102" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H102" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17739,7 +17739,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G103" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H103" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17765,7 +17765,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G104" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H104" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17791,7 +17791,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G105" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H105" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17817,7 +17817,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G106" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H106" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17843,7 +17843,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G107" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H107" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17869,7 +17869,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G108" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H108" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17895,7 +17895,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G109" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H109" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17921,7 +17921,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G110" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H110" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17947,7 +17947,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G111" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H111" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17973,7 +17973,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G112" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H112" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -17999,7 +17999,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G113" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H113" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18025,7 +18025,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G114" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H114" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18051,7 +18051,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G115" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H115" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18077,7 +18077,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G116" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H116" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18103,7 +18103,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G117" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H117" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18129,7 +18129,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G118" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H118" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18155,7 +18155,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G119" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H119" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18181,7 +18181,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G120" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H120" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18207,7 +18207,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G121" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H121" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18233,7 +18233,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G122" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H122" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18259,7 +18259,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G123" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H123" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18285,7 +18285,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G124" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H124" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18311,7 +18311,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G125" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H125" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18337,7 +18337,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G126" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H126" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18363,7 +18363,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G127" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H127" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18389,7 +18389,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G128" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H128" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18415,7 +18415,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G129" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H129" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18441,7 +18441,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G130" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H130" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18467,7 +18467,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G131" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H131" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18493,7 +18493,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G132" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H132" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18519,7 +18519,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G133" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H133" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18545,7 +18545,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G134" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H134" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18571,7 +18571,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G135" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H135" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18597,7 +18597,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G136" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H136" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18623,7 +18623,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G137" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H137" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18649,7 +18649,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G138" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H138" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18675,7 +18675,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G139" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H139" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18701,7 +18701,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G140" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H140" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18727,7 +18727,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G141" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H141" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18753,7 +18753,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G142" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H142" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18779,7 +18779,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G143" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H143" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18805,7 +18805,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G144" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H144" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18831,7 +18831,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G145" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H145" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18857,7 +18857,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G146" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H146" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18883,7 +18883,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G147" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H147" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18909,7 +18909,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G148" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H148" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18935,7 +18935,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G149" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H149" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18961,7 +18961,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G150" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H150" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -18987,7 +18987,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G151" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H151" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19013,7 +19013,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G152" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H152" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19039,7 +19039,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G153" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H153" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19065,7 +19065,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G154" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H154" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19091,7 +19091,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G155" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H155" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19117,7 +19117,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G156" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H156" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19143,7 +19143,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G157" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H157" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19169,7 +19169,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G158" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H158" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19195,7 +19195,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G159" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H159" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19221,7 +19221,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G160" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H160" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19247,7 +19247,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G161" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H161" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19273,7 +19273,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G162" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H162" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19299,7 +19299,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G163" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H163" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19325,7 +19325,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G164" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H164" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19351,7 +19351,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G165" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H165" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19377,7 +19377,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G166" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H166" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19403,7 +19403,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G167" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H167" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19429,7 +19429,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G168" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H168" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19455,7 +19455,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G169" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H169" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19481,7 +19481,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G170" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H170" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19507,7 +19507,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G171" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H171" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19533,7 +19533,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G172" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H172" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19559,7 +19559,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G173" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H173" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19585,7 +19585,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G174" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H174" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19611,7 +19611,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G175" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H175" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19637,7 +19637,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G176" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H176" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19663,7 +19663,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G177" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H177" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19689,7 +19689,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G178" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H178" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19715,7 +19715,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G179" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H179" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19741,7 +19741,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G180" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H180" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19767,7 +19767,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G181" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H181" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19793,7 +19793,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G182" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H182" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19819,7 +19819,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G183" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H183" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19845,7 +19845,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G184" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H184" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19871,7 +19871,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G185" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H185" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19897,7 +19897,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G186" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H186" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19923,7 +19923,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G187" s="5" t="str">
-        <v>2020-10-10</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H187" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19949,7 +19949,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G188" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H188" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -19975,7 +19975,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G189" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H189" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20001,7 +20001,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G190" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H190" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20027,7 +20027,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G191" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H191" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20053,7 +20053,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G192" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H192" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20079,7 +20079,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G193" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H193" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20105,7 +20105,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G194" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H194" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20131,7 +20131,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G195" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H195" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20157,7 +20157,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G196" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H196" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20183,7 +20183,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G197" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H197" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20209,7 +20209,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G198" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H198" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20235,7 +20235,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G199" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H199" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20261,7 +20261,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G200" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H200" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20287,7 +20287,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G201" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H201" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20313,7 +20313,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G202" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H202" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20339,7 +20339,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G203" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H203" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20365,7 +20365,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G204" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H204" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20391,7 +20391,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G205" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H205" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20417,7 +20417,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G206" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H206" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20443,7 +20443,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G207" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H207" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20469,7 +20469,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G208" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H208" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20495,7 +20495,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G209" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H209" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20521,7 +20521,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G210" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H210" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20547,7 +20547,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G211" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H211" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20573,7 +20573,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G212" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H212" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20599,7 +20599,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G213" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H213" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20625,7 +20625,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G214" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H214" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20651,7 +20651,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G215" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H215" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20677,7 +20677,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G216" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H216" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20703,7 +20703,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G217" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H217" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20729,7 +20729,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G218" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H218" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20755,7 +20755,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G219" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H219" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20781,7 +20781,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G220" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H220" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20807,7 +20807,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G221" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H221" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20833,7 +20833,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G222" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H222" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20859,7 +20859,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G223" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H223" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20885,7 +20885,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G224" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H224" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20911,7 +20911,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G225" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H225" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20937,7 +20937,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G226" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H226" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20963,7 +20963,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G227" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-04</v>
       </c>
       <c r="H227" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -20989,7 +20989,7 @@
         <v>ENROLLMENT</v>
       </c>
       <c r="G228" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="H228" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21041,7 +21041,7 @@
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21058,7 +21058,7 @@
         <v>Set the status of resistance to Am based on current event and previous status</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21075,7 +21075,7 @@
         <v>Hide Linezolid from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21092,7 +21092,7 @@
         <v>Display number of months since Diagnosis in the Top Bar</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21109,7 +21109,7 @@
         <v>Hide Pyrazinamide from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21126,7 +21126,7 @@
         <v>Hide Second-line Drugs unless on Second-line Treatment</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21143,7 +21143,7 @@
         <v>The date for solid culture lab results must be on or after date of sample collection</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21160,7 +21160,7 @@
         <v>Display utcome definition "Lost to follow-up" if case is not on treatment</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21177,7 +21177,7 @@
         <v>Drug resistance is detected, but case is registered on first-line</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21194,7 +21194,7 @@
         <v>Hide Clofazimine from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21211,7 +21211,7 @@
         <v>Resistance to any drug</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21228,7 +21228,7 @@
         <v>Lab: Assign date RIF resistance detected (Xpert) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21245,7 +21245,7 @@
         <v>Hide Isoniazid CC from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21262,7 +21262,7 @@
         <v>Lab: Assign date RIF resistance detected (DST SUB SM) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21279,7 +21279,7 @@
         <v>Treatment Stage: Hide First-Line and second-line drugs</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21296,7 +21296,7 @@
         <v>Display 1-line Treatment Outcome definition "Died"</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21313,7 +21313,7 @@
         <v>Check if site of disease is valid if smear result is positive</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E18" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21330,7 +21330,7 @@
         <v>Hide Levofloxacin from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21347,7 +21347,7 @@
         <v>The date for Subsequent DST LM lab results must be on or after date of sample collection</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21364,7 +21364,7 @@
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E21" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21381,7 +21381,7 @@
         <v>Hide Culture in Solid Media (e.g. LJ) Test</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E22" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21398,7 +21398,7 @@
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21415,7 +21415,7 @@
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21432,7 +21432,7 @@
         <v>Set the status of resistance to E based on current event and previous status</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E25" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21449,7 +21449,7 @@
         <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21466,7 +21466,7 @@
         <v>Hide Clofazimine from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E27" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21483,7 +21483,7 @@
         <v>Hide "Truenat RIF" field unless MTB is detected</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E28" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21500,7 +21500,7 @@
         <v>Hide Ethambutol from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E29" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21517,7 +21517,7 @@
         <v>Set the status of resistance to Km based on current event and previous status</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E30" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21534,7 +21534,7 @@
         <v>Hide Outcome dropdown option Failed - if Outcome is recorded within first 5 months of first-line treatment</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21551,7 +21551,7 @@
         <v>The event date for any stage except lab results should be greater than or equal to the enrollment date</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E32" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21568,7 +21568,7 @@
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E33" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21585,7 +21585,7 @@
         <v>Set the status of resistance to H CC based on current event and previous status</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21602,7 +21602,7 @@
         <v>Set the status of resistance to E based on current event and previous status</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E35" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21619,7 +21619,7 @@
         <v>Set the status of resistance to Mfx CB based on current event and previous status</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E36" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21636,7 +21636,7 @@
         <v>Hide Xpert MTB/RIF Test</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E37" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21653,7 +21653,7 @@
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E38" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21670,7 +21670,7 @@
         <v>Hide Moxifloxacin CC from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E39" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21687,7 +21687,7 @@
         <v>Set the status of resistance to Mfx CB based on current event and previous status</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E40" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21704,7 +21704,7 @@
         <v>Hide Amikacin from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21721,7 +21721,7 @@
         <v>Hide Delamanid from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E42" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21738,7 +21738,7 @@
         <v>Set the status of resistance to H CB based on current event and previous status</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E43" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21755,7 +21755,7 @@
         <v>Hide "Xpert MTB/RIF" fields unless "Xpert MTB/RIF" is selected</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E44" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21772,7 +21772,7 @@
         <v>Hide Levofloxacin from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E45" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21789,7 +21789,7 @@
         <v>Hide Delamanid from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E46" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21806,7 +21806,7 @@
         <v>Hide LPA (FQ/2LI) Test</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E47" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21823,7 +21823,7 @@
         <v>The date for Subsequent DST SM lab results must be on or after date of sample collection</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21840,7 +21840,7 @@
         <v>Hide Bedaquiline from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21857,7 +21857,7 @@
         <v>Prevent selection of "Cured", "Completed" or "Failed"  as treatment outcome if the patient has not started treatment</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E50" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21874,7 +21874,7 @@
         <v>Hide Levofloxacin from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E51" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21891,7 +21891,7 @@
         <v>The date for Subsequent LPA FQ/2LI lab results must be on or after date of sample collection</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E52" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21908,7 +21908,7 @@
         <v>Lab: Assign date RIF resistance detected (DST INIT LM) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E53" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21925,7 +21925,7 @@
         <v/>
       </c>
       <c r="D54" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E54" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21942,7 +21942,7 @@
         <v/>
       </c>
       <c r="D55" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E55" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21959,7 +21959,7 @@
         <v>If MTB "not detected" result is recorded, show a message that this might not be a TB case.</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E56" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21976,7 +21976,7 @@
         <v>Hide "LPA (FQ/2LI)" unless "LPA (FQ/2LI)" is selected</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -21993,7 +21993,7 @@
         <v>The date for TB-LAMP lab results must be on or after date of sample collection</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E58" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22010,7 +22010,7 @@
         <v>Set the status of resistance to Cfz based on current event and previous status</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E59" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22027,7 +22027,7 @@
         <v>Manually Assign Resistance Classification XDR</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E60" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22044,7 +22044,7 @@
         <v>Display 1-line Treatment Outcome definition "Completed"</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E61" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22061,7 +22061,7 @@
         <v>Hide TB-LAMP Test</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E62" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22078,7 +22078,7 @@
         <v>Hide Rifampicin from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E63" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22095,7 +22095,7 @@
         <v>Classify as XDR case</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E64" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22112,7 +22112,7 @@
         <v>The date for Subsequent LPA RIF/INH lab results must be on or after date of sample collection</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E65" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22129,7 +22129,7 @@
         <v/>
       </c>
       <c r="D66" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E66" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22146,7 +22146,7 @@
         <v/>
       </c>
       <c r="D67" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E67" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22163,7 +22163,7 @@
         <v>Set the status of resistance to H based on current event and previous status</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E68" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22180,7 +22180,7 @@
         <v>Classify as Poly Res</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E69" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22197,7 +22197,7 @@
         <v>Hide Linezolid from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E70" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22214,7 +22214,7 @@
         <v>Hide "Sputum Smear Microscopy Fields" unless "Sputum Smear Microscopy" is selected</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E71" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22231,7 +22231,7 @@
         <v>Set the status of resistance to Cfz based on current event and previous status</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E72" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22248,7 +22248,7 @@
         <v>Set the status of resistance to Bdq based on current event and previous status</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E73" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22265,7 +22265,7 @@
         <v>Hide First-line Drugs unless on First-line Treatment</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E74" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22282,7 +22282,7 @@
         <v>Calculate an outcome due date for first-line treatment from date of diagnosis (9 months)</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E75" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22299,7 +22299,7 @@
         <v>Hide Pyrazinamide from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E76" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22316,7 +22316,7 @@
         <v>Hide Isoniazid CC from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E77" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22333,7 +22333,7 @@
         <v>Assign number of months since diagnosis in the Top Bar</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E78" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22350,7 +22350,7 @@
         <v>Classify as MDR case</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E79" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22367,7 +22367,7 @@
         <v>Hide Culture in Liquid Media (e.g. MGIT) Test</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E80" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22384,7 +22384,7 @@
         <v>Hide Isoniazid CB from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E81" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22401,7 +22401,7 @@
         <v>Hide Rifampicin from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E82" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22418,7 +22418,7 @@
         <v/>
       </c>
       <c r="D83" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E83" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22435,7 +22435,7 @@
         <v>Set the status of resistance to Dlm based on current event and previous status</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E84" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22452,7 +22452,7 @@
         <v>Hide ART start date unless ART is started</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E85" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22469,7 +22469,7 @@
         <v>Hide Linezolid from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E86" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22486,7 +22486,7 @@
         <v>Display 2-line Treatment Outcome definition "Lost to follow-up"</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E87" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22503,7 +22503,7 @@
         <v>Hide "Culture in Liquid Media (e.g. MGIT)" fields unless "Liquid (e.g. MGIT)" is selected</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E88" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22520,7 +22520,7 @@
         <v>Set the status of resistance to H based on current event and previous status</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E89" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22537,7 +22537,7 @@
         <v/>
       </c>
       <c r="D90" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E90" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22554,7 +22554,7 @@
         <v>The date for smear lab results must be on or after date of sample collection</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E91" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22571,7 +22571,7 @@
         <v>Assign delay in days between Treatment Initiation date of diagnosis</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>2020-08-31</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E92" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22588,7 +22588,7 @@
         <v>Hide Amikacin from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E93" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22605,7 +22605,7 @@
         <v>Manually Assign Resistance Classification DS</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E94" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22622,7 +22622,7 @@
         <v/>
       </c>
       <c r="D95" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E95" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22639,7 +22639,7 @@
         <v>Set the status of resistance to Lfx based on current event and previous status</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E96" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22656,7 +22656,7 @@
         <v>Display 2-line Treatment Outcome definition "Cured"</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E97" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22673,7 +22673,7 @@
         <v>Hide "Manually Assigned Resistance Classification" field</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E98" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22690,7 +22690,7 @@
         <v>Hide Rifampicin from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E99" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22707,7 +22707,7 @@
         <v>Hide Bedaquiline from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E100" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22724,7 +22724,7 @@
         <v>Display Definition "Relapse patient" in Treatment History</v>
       </c>
       <c r="D101" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E101" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22741,7 +22741,7 @@
         <v>Set the status of resistance to Mfx based on current event and previous status</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E102" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22758,7 +22758,7 @@
         <v>Set the status of resistance to Am based on current event and previous status</v>
       </c>
       <c r="D103" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E103" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22775,7 +22775,7 @@
         <v>Assign delay in days between Treatment Initiation date of diagnosis</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E104" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22792,7 +22792,7 @@
         <v>Hide Amikacin from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E105" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22809,7 +22809,7 @@
         <v>Resistance to fluoroquinolones</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E106" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22826,7 +22826,7 @@
         <v/>
       </c>
       <c r="D107" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E107" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22843,7 +22843,7 @@
         <v>Hide Moxifloxacin CC from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E108" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22860,7 +22860,7 @@
         <v>Hide "TB Truenat" fields unless "TB Truenat" is selected</v>
       </c>
       <c r="D109" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E109" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22877,7 +22877,7 @@
         <v>Set the status of resistance to Lfx based on current event and previous status</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E110" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22894,7 +22894,7 @@
         <v>Set the status of resistance to FQ based on current event and previous status</v>
       </c>
       <c r="D111" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E111" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22911,7 +22911,7 @@
         <v>Hide "TB LF-LAM" fields unless "TB LF-LAM" is selected</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E112" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22928,7 +22928,7 @@
         <v>Hide Moxifloxacin CB from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D113" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E113" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22945,7 +22945,7 @@
         <v>Display Definition "New patient" in Treatment History</v>
       </c>
       <c r="D114" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E114" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22962,7 +22962,7 @@
         <v/>
       </c>
       <c r="D115" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E115" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22979,7 +22979,7 @@
         <v>Display Definition "Treatment after failure patient" in Treatment History</v>
       </c>
       <c r="D116" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E116" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -22996,7 +22996,7 @@
         <v>Summarise resistant drugs into one data element</v>
       </c>
       <c r="D117" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E117" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23013,7 +23013,7 @@
         <v>Display Definition "Treatment after lost to follow-up patient" in Treatment History</v>
       </c>
       <c r="D118" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E118" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23030,7 +23030,7 @@
         <v>Hide details on second-line treatment unless treatment category is set to second-line</v>
       </c>
       <c r="D119" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E119" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23047,7 +23047,7 @@
         <v>Hide Hide Final RIF/INH LPA Results for Rifampicin and Isoniazid fields unless MTBc is detected</v>
       </c>
       <c r="D120" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E120" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23064,7 +23064,7 @@
         <v>Display reminder to provide Laboratory Results</v>
       </c>
       <c r="D121" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E121" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23081,7 +23081,7 @@
         <v>Hide "LPA (RIF/INH)" unless "LPA (RIF/INH)" is selected</v>
       </c>
       <c r="D122" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E122" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23098,7 +23098,7 @@
         <v/>
       </c>
       <c r="D123" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E123" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23115,7 +23115,7 @@
         <v>Hide Clofazimine from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D124" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E124" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23132,7 +23132,7 @@
         <v>Hide Moxifloxacin CB from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D125" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E125" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23149,7 +23149,7 @@
         <v>Hide the fields related to HIV number and ART unless the person is HIV positive</v>
       </c>
       <c r="D126" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E126" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23166,7 +23166,7 @@
         <v>Classify as RR case</v>
       </c>
       <c r="D127" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E127" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23183,7 +23183,7 @@
         <v>Hide Pyrazinamide from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D128" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E128" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23200,7 +23200,7 @@
         <v>Hide Rifampicin from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D129" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E129" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23217,7 +23217,7 @@
         <v>Resistance to Am, Km or Cm</v>
       </c>
       <c r="D130" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E130" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23234,7 +23234,7 @@
         <v>Hide Outcome dropdown options Cured, Completed, Not evaluated - if Outcome is recorded within first 6 months of first-line treatment</v>
       </c>
       <c r="D131" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E131" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23251,7 +23251,7 @@
         <v>Display 1-line Treatment Outcome definition "Not evaluated"</v>
       </c>
       <c r="D132" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E132" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23268,7 +23268,7 @@
         <v>The date for TB-LF-LAM lab results must be on or after date of sample collection</v>
       </c>
       <c r="D133" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E133" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23285,7 +23285,7 @@
         <v>Hide "Xpert MTB/RIF Ultra" fields unless "Xpert MTB/RIF Ultra" is selected</v>
       </c>
       <c r="D134" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E134" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23302,7 +23302,7 @@
         <v>Hide Pyrazinamide from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D135" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E135" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23319,7 +23319,7 @@
         <v>The date for Initial DST SM lab results must be on or after date of sample collection</v>
       </c>
       <c r="D136" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E136" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23336,7 +23336,7 @@
         <v>Display 2-line Treatment Outcome definition "Died"</v>
       </c>
       <c r="D137" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E137" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23353,7 +23353,7 @@
         <v>Manually Assign Resistance Classification RR</v>
       </c>
       <c r="D138" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E138" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23370,7 +23370,7 @@
         <v/>
       </c>
       <c r="D139" s="5" t="str">
-        <v>2020-08-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E139" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23387,7 +23387,7 @@
         <v/>
       </c>
       <c r="D140" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E140" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23404,7 +23404,7 @@
         <v>Hide Amikacin from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D141" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E141" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23421,7 +23421,7 @@
         <v>Hide Initial DST in Liquid Media (e.g. MGIT) Test</v>
       </c>
       <c r="D142" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E142" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23438,7 +23438,7 @@
         <v>Hide "Initial DST in Solid Media (LJ)" fields unless "Initial DST in Solid Media (LJ)" is selected</v>
       </c>
       <c r="D143" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E143" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23455,7 +23455,7 @@
         <v>Set the status of resistance to Z based on current event and previous status</v>
       </c>
       <c r="D144" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E144" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23472,7 +23472,7 @@
         <v>Resistance to pyrazinamide</v>
       </c>
       <c r="D145" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E145" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23489,7 +23489,7 @@
         <v>Display delay in days between Treatment Initiation date of diagnosis</v>
       </c>
       <c r="D146" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E146" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23506,7 +23506,7 @@
         <v>Resistance to isoniazid</v>
       </c>
       <c r="D147" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E147" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23523,7 +23523,7 @@
         <v>Classify as Mono Res</v>
       </c>
       <c r="D148" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E148" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23540,7 +23540,7 @@
         <v>Hide Clofazimine from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D149" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E149" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23557,7 +23557,7 @@
         <v/>
       </c>
       <c r="D150" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E150" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23574,7 +23574,7 @@
         <v>Set the confirmation method to clinically diagnosed if no positive lab result have been recorded</v>
       </c>
       <c r="D151" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E151" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23591,7 +23591,7 @@
         <v>Display 1-line Treatment Outcome definition "Lost to follow-up"</v>
       </c>
       <c r="D152" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E152" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23608,7 +23608,7 @@
         <v>Hide Delamanid from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D153" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E153" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23625,7 +23625,7 @@
         <v>Hide Bedaquiline from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D154" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E154" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23642,7 +23642,7 @@
         <v>Hide Isoniazid CC from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D155" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E155" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23659,7 +23659,7 @@
         <v/>
       </c>
       <c r="D156" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E156" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23676,7 +23676,7 @@
         <v>Hide Ethambutol from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D157" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E157" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23693,7 +23693,7 @@
         <v>Lab: Assign date RIF resistance detected (Truenat) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D158" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E158" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23710,7 +23710,7 @@
         <v>Set the status of resistance to Lzd based on current event and previous status</v>
       </c>
       <c r="D159" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E159" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23727,7 +23727,7 @@
         <v>Set the status of resistance to H CC based on current event and previous status</v>
       </c>
       <c r="D160" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E160" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23744,7 +23744,7 @@
         <v>Lab: Assign date RIF resistance detected (DST INIT SM) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D161" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E161" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23761,7 +23761,7 @@
         <v/>
       </c>
       <c r="D162" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E162" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23778,7 +23778,7 @@
         <v>Hide Bedaquiline from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D163" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E163" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23795,7 +23795,7 @@
         <v>Prompt the user to set date of birth to January 1 if date of birth is estimated</v>
       </c>
       <c r="D164" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E164" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23812,7 +23812,7 @@
         <v>Lab: Assign date RIF resistance detected (Xpert Ultra) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D165" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E165" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23830,7 +23830,7 @@
 Make "RIF result" field mandatory if MTB is detected</v>
       </c>
       <c r="D166" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E166" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23847,7 +23847,7 @@
         <v>Hide Moxifloxacin CB from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D167" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E167" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23864,7 +23864,7 @@
         <v>Display message if HIV Status is Unknown</v>
       </c>
       <c r="D168" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E168" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23881,7 +23881,7 @@
         <v>Hide LPA (RIF/INH) Test</v>
       </c>
       <c r="D169" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E169" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23898,7 +23898,7 @@
         <v>Set the status of resistance to R based on current event and previous status for DST, as well as Xpert RIF</v>
       </c>
       <c r="D170" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E170" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23915,7 +23915,7 @@
         <v>Set the status of resistance to FQ based on current event and previous status</v>
       </c>
       <c r="D171" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E171" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23932,7 +23932,7 @@
         <v/>
       </c>
       <c r="D172" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E172" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23949,7 +23949,7 @@
         <v/>
       </c>
       <c r="D173" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E173" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23966,7 +23966,7 @@
         <v>Hide Levofloxacin from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D174" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E174" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -23983,7 +23983,7 @@
         <v>Clear Date RIF Resistance Detected if Resistance was not detected</v>
       </c>
       <c r="D175" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E175" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24000,7 +24000,7 @@
         <v>Lab: Assign date RIF resistance detected (LPA RIF/INH) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D176" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E176" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24017,7 +24017,7 @@
         <v/>
       </c>
       <c r="D177" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E177" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24034,7 +24034,7 @@
         <v>Hide delay in weeks</v>
       </c>
       <c r="D178" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E178" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24051,7 +24051,7 @@
         <v>Hide Moxifloxacin CB from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D179" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E179" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24068,7 +24068,7 @@
         <v>Display Definition "Other previously treated patient" in Treatment History</v>
       </c>
       <c r="D180" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E180" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24085,7 +24085,7 @@
         <v>The date for liquid culture lab results must be on or after date of sample collection</v>
       </c>
       <c r="D181" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E181" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24102,7 +24102,7 @@
         <v>Set the status of resistance to Km based on current event and previous status</v>
       </c>
       <c r="D182" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E182" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24119,7 +24119,7 @@
         <v>Hide Moxifloxacin CC from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D183" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E183" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24136,7 +24136,7 @@
         <v>Date of birth should be before enrolment date</v>
       </c>
       <c r="D184" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E184" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24153,7 +24153,7 @@
         <v>Hide Isoniazid CB from list of drugs used for Subsequent DST in solid media if not used</v>
       </c>
       <c r="D185" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E185" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24170,7 +24170,7 @@
         <v/>
       </c>
       <c r="D186" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E186" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24187,7 +24187,7 @@
         <v>Hide the outcome due date until a treatment regimen has been selected</v>
       </c>
       <c r="D187" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E187" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24204,7 +24204,7 @@
         <v>Display Age ( &gt;= 2) in the top bar</v>
       </c>
       <c r="D188" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E188" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24221,7 +24221,7 @@
         <v>Set the status of resistance to Lzd based on current event and previous status</v>
       </c>
       <c r="D189" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E189" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24238,7 +24238,7 @@
         <v>Hide Outcome dropdown options Cured, Completed, Not evaluated - if Outcome is recorded within first 6 months of second-line treatment</v>
       </c>
       <c r="D190" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E190" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24255,7 +24255,7 @@
         <v>The date for GeneXpert Ultra lab results must be on or after date of sample collection</v>
       </c>
       <c r="D191" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E191" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24272,7 +24272,7 @@
         <v/>
       </c>
       <c r="D192" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E192" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24289,7 +24289,7 @@
         <v/>
       </c>
       <c r="D193" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E193" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24306,7 +24306,7 @@
         <v>Display 2-line Treatment Outcome definition "Failed"</v>
       </c>
       <c r="D194" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E194" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24323,7 +24323,7 @@
         <v>Hide Linezolid from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D195" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E195" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24340,7 +24340,7 @@
         <v>Resistance to ethambutol</v>
       </c>
       <c r="D196" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E196" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24357,7 +24357,7 @@
         <v>Classify as regular/drug susceptible case</v>
       </c>
       <c r="D197" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E197" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24375,7 +24375,7 @@
 Make "RIF result" field mandatory if MTB is detected</v>
       </c>
       <c r="D198" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E198" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24392,7 +24392,7 @@
         <v>Assign and display delay in weeks between due and factual dates of treatment outcome</v>
       </c>
       <c r="D199" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E199" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24409,7 +24409,7 @@
         <v>Age cannot be greater than 120 years</v>
       </c>
       <c r="D200" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E200" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24426,7 +24426,7 @@
         <v>Hide "Xpert Ultra RIF" field unless MTB is detected</v>
       </c>
       <c r="D201" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E201" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24443,7 +24443,7 @@
         <v>Hide Isoniazid CB from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D202" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E202" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24460,7 +24460,7 @@
         <v>Hide Isoniazid CC from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D203" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E203" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24477,7 +24477,7 @@
         <v>Show a message if passed the outcome due date (based on date of diagnosis) and no outcome is recorded</v>
       </c>
       <c r="D204" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E204" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24494,7 +24494,7 @@
         <v>The date of starting ART must be on or after HIV status date</v>
       </c>
       <c r="D205" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E205" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24511,7 +24511,7 @@
         <v>Show message that person is on second line treatment regimen</v>
       </c>
       <c r="D206" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E206" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24528,7 +24528,7 @@
         <v>Display 1-line Treatment Outcome definition "Failed"</v>
       </c>
       <c r="D207" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E207" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24545,7 +24545,7 @@
         <v>Hide Initial DST in Solid Media (e.g. LJ) Test</v>
       </c>
       <c r="D208" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E208" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24562,7 +24562,7 @@
         <v>Display 2-line Treatment Outcome definition "Completed"</v>
       </c>
       <c r="D209" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E209" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24579,7 +24579,7 @@
         <v/>
       </c>
       <c r="D210" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E210" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24596,7 +24596,7 @@
         <v/>
       </c>
       <c r="D211" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E211" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24613,7 +24613,7 @@
         <v>Assign number of months (0) since diagnosis in the top bar</v>
       </c>
       <c r="D212" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E212" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24630,7 +24630,7 @@
         <v>The date of starting ART must be on or after the date of birth</v>
       </c>
       <c r="D213" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E213" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24647,7 +24647,7 @@
         <v>Date of birth should be before the current date</v>
       </c>
       <c r="D214" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E214" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24664,7 +24664,7 @@
         <v>Hide "Subsequent DST in Solid Media (LJ)" fields unless "Subsequent DST in Solid Media (LJ)" is selected</v>
       </c>
       <c r="D215" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E215" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24681,7 +24681,7 @@
         <v>Display outcome definition "Died"  if case not on treatment</v>
       </c>
       <c r="D216" s="4" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E216" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24698,7 +24698,7 @@
         <v>Resistance to rifampicin</v>
       </c>
       <c r="D217" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E217" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24715,7 +24715,7 @@
         <v>Prevent selection of "cured" as treatment outcome if the patient is clinically diagnosed</v>
       </c>
       <c r="D218" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E218" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24732,7 +24732,7 @@
         <v>Hide "Culture in Solid Media (e.g. LJ)" fields unless "Culture in Solid Media (e.g. LJ)" is selected</v>
       </c>
       <c r="D219" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E219" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24749,7 +24749,7 @@
         <v/>
       </c>
       <c r="D220" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E220" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24766,7 +24766,7 @@
         <v>If the case is marked as "denotified", hide the "Outcome" field</v>
       </c>
       <c r="D221" s="5" t="str">
-        <v>2020-08-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E221" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24783,7 +24783,7 @@
         <v>Assign no value to delay in weeks</v>
       </c>
       <c r="D222" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E222" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24800,7 +24800,7 @@
         <v>Set the status of resistance to Bdq based on current event and previous status</v>
       </c>
       <c r="D223" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E223" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24817,7 +24817,7 @@
         <v>Display 2-line Treatment Outcome definition "Not evaluated"</v>
       </c>
       <c r="D224" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E224" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24834,7 +24834,7 @@
         <v>Hide Moxifloxacin CC from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D225" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E225" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24851,7 +24851,7 @@
         <v>Hide "Initial DST in Liquid Media (Mgit)" fields unless "Initial DST in Liquid Media (Mgit)" is selected</v>
       </c>
       <c r="D226" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E226" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24868,7 +24868,7 @@
         <v/>
       </c>
       <c r="D227" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E227" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24885,7 +24885,7 @@
         <v>Set the status of resistance to Am/Cm based on current event and previous status</v>
       </c>
       <c r="D228" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E228" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24902,7 +24902,7 @@
         <v>Hide Final FQ/2LI LPA Results for FQ, 2LI and Ethambutol fields unless MTBc is detected</v>
       </c>
       <c r="D229" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E229" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24919,7 +24919,7 @@
         <v>The date of HIV status must be on or after the date of birth</v>
       </c>
       <c r="D230" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E230" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24936,7 +24936,7 @@
         <v>Set the status of resistance to Z based on current event and previous status</v>
       </c>
       <c r="D231" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E231" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24953,7 +24953,7 @@
         <v/>
       </c>
       <c r="D232" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E232" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24970,7 +24970,7 @@
         <v>Assign no value to delay in days</v>
       </c>
       <c r="D233" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E233" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -24987,7 +24987,7 @@
         <v>Hide Delamanid from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D234" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E234" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25004,7 +25004,7 @@
         <v>Classify as DR case</v>
       </c>
       <c r="D235" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E235" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25021,7 +25021,7 @@
         <v>Hide HIV STATUS Date if HIV Status is Unknown</v>
       </c>
       <c r="D236" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E236" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25038,7 +25038,7 @@
         <v/>
       </c>
       <c r="D237" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E237" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25055,7 +25055,7 @@
         <v>Hide Ethambutol from list of drugs used for Subsequent DST in liquid media if not used</v>
       </c>
       <c r="D238" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E238" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25072,7 +25072,7 @@
         <v>Set the confirmation method to bacteriologically confirmed if a positive lab result has been recorded.</v>
       </c>
       <c r="D239" s="5" t="str">
-        <v>2020-08-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E239" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25089,7 +25089,7 @@
         <v>Hide Ethambutol from list of drugs used for Initial DST in liquid media if not used</v>
       </c>
       <c r="D240" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E240" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25106,7 +25106,7 @@
         <v>Assign treatment start date when treatment regimen has been selected and there was no previous regimen, or if a new regimen is selected AND the previous treatment start date is different from the current.</v>
       </c>
       <c r="D241" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E241" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25123,7 +25123,7 @@
         <v>Hide "TB-LAMP" fields unless "TB-LAMP" is selected</v>
       </c>
       <c r="D242" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E242" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25140,7 +25140,7 @@
         <v>Hide LF-LAM Test</v>
       </c>
       <c r="D243" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E243" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25157,7 +25157,7 @@
         <v/>
       </c>
       <c r="D244" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E244" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25174,7 +25174,7 @@
         <v>The date for TB-Truenat lab results must be on or after date of sample collection</v>
       </c>
       <c r="D245" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E245" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25191,7 +25191,7 @@
         <v>Hide Isoniazid CB from list of drugs used for Initial DST in solid media if not used</v>
       </c>
       <c r="D246" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E246" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25208,7 +25208,7 @@
         <v>Date of death cannot be before treatment initiation date</v>
       </c>
       <c r="D247" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E247" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25225,7 +25225,7 @@
         <v>Hide "Subsequent DST in Liquid Media (Mgit)" fields unless "Subsequent DST in Liquid Media (Mgit)" is selected</v>
       </c>
       <c r="D248" s="4" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E248" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25242,7 +25242,7 @@
         <v>Show case classification (DS, DR, RR, MDR, XDR)</v>
       </c>
       <c r="D249" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E249" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25259,7 +25259,7 @@
         <v>Manually Assign Resistance Classification MDR</v>
       </c>
       <c r="D250" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E250" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25276,7 +25276,7 @@
         <v>Set the status of resistance to Dlm based on current event and previous status</v>
       </c>
       <c r="D251" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E251" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25293,7 +25293,7 @@
         <v>Display 1-line Treatment Outcome definition "Cured"</v>
       </c>
       <c r="D252" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E252" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25310,7 +25310,7 @@
         <v>Hide "Xpert RIF" field unless MTB is detected</v>
       </c>
       <c r="D253" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E253" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25327,7 +25327,7 @@
         <v>Drug resistance not detected, but case is registered on second-line</v>
       </c>
       <c r="D254" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E254" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25344,7 +25344,7 @@
         <v>Set the status of resistance to R based on current event and previous status</v>
       </c>
       <c r="D255" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E255" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25361,7 +25361,7 @@
         <v>Set the status of resistance to Mfx based on current event and previous status</v>
       </c>
       <c r="D256" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E256" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25378,7 +25378,7 @@
         <v>The date for Initial DST LM lab results must be on or after date of sample collection</v>
       </c>
       <c r="D257" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E257" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25395,7 +25395,7 @@
         <v>Display Definition "Patient with unknown previous TB treatment history" in Treatment History</v>
       </c>
       <c r="D258" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E258" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25412,7 +25412,7 @@
         <v>Display Age ( &lt;2) in the top bar</v>
       </c>
       <c r="D259" s="5" t="str">
-        <v>2020-10-16</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E259" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25429,7 +25429,7 @@
         <v>Hide Sputum Smear Microscopy Test</v>
       </c>
       <c r="D260" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E260" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25446,7 +25446,7 @@
         <v>Lab: Assign date RIF resistance detected (DST SUB LM) if RIF resistance is detected, a date has been entered and the date is preceding the current RIF resistance date</v>
       </c>
       <c r="D261" s="5" t="str">
-        <v>2020-08-13</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E261" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25463,7 +25463,7 @@
         <v>Set the status of resistance to Am/Cm based on current event and previous status</v>
       </c>
       <c r="D262" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E262" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25480,7 +25480,7 @@
         <v>Display reminder to retest patient for HIV if the HIV Status date is +6 months</v>
       </c>
       <c r="D263" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E263" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25497,7 +25497,7 @@
         <v>If and outcome is selected, hide the "denotification" field</v>
       </c>
       <c r="D264" s="4" t="str">
-        <v>2020-08-14</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E264" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25514,7 +25514,7 @@
         <v>Show field for specifying other drug</v>
       </c>
       <c r="D265" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E265" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25532,7 +25532,7 @@
 Make "RIF result" field mandatory if MTB is detected</v>
       </c>
       <c r="D266" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E266" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25549,7 +25549,7 @@
         <v>The date for GeneXpert lab results must be on or after date of sample collection</v>
       </c>
       <c r="D267" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E267" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25566,7 +25566,7 @@
         <v/>
       </c>
       <c r="D268" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E268" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25583,7 +25583,7 @@
         <v>Assign Temporary Resistance Classification RR/MDR for clinically diagnosed cases starting on second-line treatment</v>
       </c>
       <c r="D269" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E269" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25600,7 +25600,7 @@
         <v>Hide Outcome dropdown option Failed - if Outcome is recorded within first 5 months of second-line treatment</v>
       </c>
       <c r="D270" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E270" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25617,7 +25617,7 @@
         <v>Hide Not TB case (Explanation) unless "De-notify" is selected</v>
       </c>
       <c r="D271" s="5" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E271" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25634,7 +25634,7 @@
         <v>Set the status of resistance to H CB based on current event and previous status</v>
       </c>
       <c r="D272" s="4" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E272" s="4" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25651,7 +25651,7 @@
         <v/>
       </c>
       <c r="D273" s="5" t="str">
-        <v>2020-08-04</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E273" s="5" t="str">
         <v>Lt6P15ps7f6</v>
@@ -25668,7 +25668,7 @@
         <v>Calculate an outcome due date for second-line treatment from date of diagnosis (24 months)</v>
       </c>
       <c r="D274" s="4" t="str">
-        <v>2020-09-24</v>
+        <v>2020-11-05</v>
       </c>
       <c r="E274" s="4" t="str">
         <v>Lt6P15ps7f6</v>
